--- a/biology/Zoologie/Fête_de_l'ours_d'Arles-sur-Tech/Fête_de_l'ours_d'Arles-sur-Tech.xlsx
+++ b/biology/Zoologie/Fête_de_l'ours_d'Arles-sur-Tech/Fête_de_l'ours_d'Arles-sur-Tech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_l%27ours_d%27Arles-sur-Tech</t>
+          <t>Fête_de_l'ours_d'Arles-sur-Tech</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fête de l’ours d'Arles-sur-Tech est une pratique festive se déroulant annuellement à la fin de l’hiver à Arles-sur-Tech, dans les Pyrénées-Orientales (Occitanie).
-La fête de l'ours d'Arles-sur-Tech est inscrite à l'Inventaire du patrimoine culturel immatériel en France[1] dans le cadre de la pratique des fêtes de l'ours du Haut-Vallespir.
-En 2021, les trois fêtes de l'ours en Vallespir sont annulées en raison de la pandémie de Covid-19 en France[2].
-Le 29 novembre 2022, les fêtes de l'ours dans les Pyrénées d'Andorre et de France sont inscrites au Patrimoine culturel immatériel de l'UNESCO[3].
+La fête de l'ours d'Arles-sur-Tech est inscrite à l'Inventaire du patrimoine culturel immatériel en France dans le cadre de la pratique des fêtes de l'ours du Haut-Vallespir.
+En 2021, les trois fêtes de l'ours en Vallespir sont annulées en raison de la pandémie de Covid-19 en France.
+Le 29 novembre 2022, les fêtes de l'ours dans les Pyrénées d'Andorre et de France sont inscrites au Patrimoine culturel immatériel de l'UNESCO.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_l%27ours_d%27Arles-sur-Tech</t>
+          <t>Fête_de_l'ours_d'Arles-sur-Tech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fête de l’ours est une représentation dansée et théâtralisée des légendes entourant l’ours dans les Pyrénées. Elle se traduit par la capture de l’ours et son jugement sur la place du village. Plusieurs types de personnages évoluent dans ce cadre festif : l’Ours bien sûr, mais aussi le Trappeur et son épouse Roseta. Au cours de sa capture, l’ours tente de s’évader plusieurs fois pour attraper Roseta. En effet, les légendes du monde entier racontent que l’ours a coutume d’enlever les femmes pour s’accoupler avec elles. À chaque capture réussie, le Trappeur, chef des Chasseurs, récite son sermon, le Predica. D’autres personnages gravitent autour de ces scènes, comme les Bótes ou les quatre Tortugues. Ces scènes de capture font finalement tout le tour de la ville avant de s’achever sur la place de l’Église par la capture définitive de l’Ours et son rasage par le Trappeur et sa femme.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAte_de_l%27ours_d%27Arles-sur-Tech</t>
+          <t>Fête_de_l'ours_d'Arles-sur-Tech</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">9 h 30 : petit déjeuner salé des acteurs principaux de la fête.
 10 h 30 : début de la fête par l’ « Appel du Trappeur » (Trobada dels Caçaïres). Ce dernier rassemble les chasseurs pour se préparer à la chasse à l’ours de l’après-midi. Cet appel est une spécificité de  la fête de l’ours d’Arles-sur-Tech, il ne se fait pas dans les autres villages du Haut-Vallespir. Le groupe déambule dans le village, entourés d’airs traditionnels mais aussi de bandas.
